--- a/end/Finance/工资发放导入模板.xlsx
+++ b/end/Finance/工资发放导入模板.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanted\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1839129-AECA-4E41-B186-4767E68E5E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C8FAB-3EC6-43D7-B5FF-0EBC364B56ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,13 +125,16 @@
   <si>
     <t>卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,16 +185,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,11 +216,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +274,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -562,10 +591,12 @@
     <col min="23" max="23" width="12.875" style="5" customWidth="1"/>
     <col min="24" max="24" width="12.625" style="5" customWidth="1"/>
     <col min="25" max="25" width="21.375" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="5"/>
+    <col min="26" max="29" width="9" style="5"/>
+    <col min="30" max="30" width="24.125" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -641,8 +672,15 @@
       <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="16.5">
+      <c r="Z1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5">
       <c r="A2" s="6"/>
       <c r="B2" s="12"/>
       <c r="C2" s="2"/>
@@ -654,8 +692,13 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.5">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" ht="16.5">
       <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="2"/>
@@ -666,8 +709,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="16.5">
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="2"/>
@@ -678,8 +726,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
@@ -691,7 +744,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5">
+    <row r="6" spans="1:30" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="12"/>
       <c r="C6" s="2"/>
@@ -703,7 +756,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="16.5">
+    <row r="7" spans="1:30" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
@@ -715,7 +768,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5">
+    <row r="8" spans="1:30" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
@@ -727,7 +780,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16.5">
+    <row r="9" spans="1:30" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
@@ -739,7 +792,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16.5">
+    <row r="10" spans="1:30" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
@@ -751,7 +804,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="16.5">
+    <row r="11" spans="1:30" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2"/>
@@ -763,7 +816,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5">
+    <row r="12" spans="1:30" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
@@ -775,7 +828,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5">
+    <row r="13" spans="1:30" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -787,7 +840,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="16.5">
+    <row r="14" spans="1:30" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="12"/>
       <c r="C14" s="1"/>
@@ -799,7 +852,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="16.5">
+    <row r="15" spans="1:30" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="12"/>
       <c r="C15" s="1"/>
@@ -811,7 +864,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="16.5">
+    <row r="16" spans="1:30" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="12"/>
       <c r="C16" s="1"/>
@@ -1256,6 +1309,9 @@
       <c r="J52" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z1:AD4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/end/Finance/工资发放导入模板.xlsx
+++ b/end/Finance/工资发放导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C8FAB-3EC6-43D7-B5FF-0EBC364B56ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA065461-563B-46BD-B900-48EB422D1168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,9 +125,6 @@
   <si>
     <t>卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
@@ -194,41 +191,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -276,8 +252,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +538,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="X22" sqref="X22:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -672,15 +648,13 @@
       <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
       <c r="AD1" s="16"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5">
+    <row r="2" spans="1:30" ht="16.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12"/>
       <c r="C2" s="2"/>
@@ -698,7 +672,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
     </row>
-    <row r="3" spans="1:30" ht="16.5">
+    <row r="3" spans="1:30" ht="16.5" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="2"/>
@@ -715,7 +689,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5">
+    <row r="4" spans="1:30" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="2"/>
@@ -1309,9 +1283,6 @@
       <c r="J52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Z1:AD4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
